--- a/biology/Zoologie/Asterocampa/Asterocampa.xlsx
+++ b/biology/Zoologie/Asterocampa/Asterocampa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asterocampa est un genre de lépidoptères de la sous-famille des Apaturinae (famille des Nymphalidae).
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Asterocampa se rencontrent en Amérique du Nord.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (16 avril 2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (16 avril 2024) :
 Asterocampa alicia Edwards
 Asterocampa argus (Bates, 1864)
 Asterocampa celtis (Boisduval &amp; Le Conte, 1833)
@@ -554,19 +570,19 @@
 Asterocampa leilia (Edwards, 1874)
 Asterocampa speciosissima (Kaye, 1918)
 Groupe celtis, les « True Hackberry Butterflies »
-Asterocampa celtis (Boisduval &amp; Le Conte, [1835])
+Asterocampa celtis (Boisduval &amp; Le Conte, )
 Asterocampa celtis celtis
 Asterocampa celtis alicia (Edwards, 1868)
 Asterocampa celtis antonia (Edwards, 1877)
 Asterocampa celtis reinthali Friedlander, 1987
 Asterocampa leilia (Edwards, 1874) ; présent en Arizona et au Texas
 Groupe clyton, les « American Emperor Butterflies »
-Asterocampa clyton (Boisduval &amp; Le Conte, [1835])
+Asterocampa clyton (Boisduval &amp; Le Conte, )
 Asterocampa clyton clyton
 Asterocampa clyton flora (Edwards, 1876)
 Asterocampa clyton louisa Stallings &amp; Turner, 1947
 Asterocampa clyton texana (Skinner, 1911)
-Asterocampa idyja (Geyer, [1828])
+Asterocampa idyja (Geyer, )
 Asterocampa idyja idyja
 Asterocampa idyja argus (Bates, 1864)
 [réf. nécessaire]</t>
@@ -597,10 +613,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Asterocampa Röber, 1916[1].
-Asterocampa a pour synonyme[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Asterocampa Röber, 1916.
+Asterocampa a pour synonyme :
 Celtiphaga Barnes &amp; Lindsey, 1922</t>
         </is>
       </c>
